--- a/SimilarityMetrics/SegOdont.xlsx
+++ b/SimilarityMetrics/SegOdont.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="150">
   <si>
     <t>IoU</t>
   </si>
@@ -474,15 +474,17 @@
   </si>
   <si>
     <t>WENDY3_Izq</t>
+  </si>
+  <si>
+    <t>Dice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -527,17 +529,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -951,484 +947,668 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>0.90682632637007254</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <v>0.95113678034470117</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <f>AVERAGE(B:B)</f>
         <v>0.87091165013359306</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>AVERAGE(C:C)</f>
+        <v>0.93071048504786602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>0.873497383679819</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>0.93247782600490658</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <f>_xlfn.STDEV.S(B:B)</f>
         <v>3.0706784514270162E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>_xlfn.STDEV.S(C:C)</f>
+        <v>1.812433705889736E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>0.90861833105335155</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.95212155963302747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0.82557668959935249</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.90445577477277761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0.88805309734513271</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.94070775720646826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>0.89980007056333056</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.9472576451652841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0.85225210361326509</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.92023337638622893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>0.91377673943199245</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.95494601915080302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>0.86966009232060426</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.93028684293217223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>0.88666969284309272</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.93993102895180047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>0.84791591807402089</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.9176996742987702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>0.88630897317298796</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0.93972831150997982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>0.88246202755210168</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0.93756157057747325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>0.87393082930457422</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0.93272474697360586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>0.86415094339622645</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.92712550607287447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>0.87434863828532106</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.93296265211917762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>0.72981920040743575</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0.84380980421021645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>0.87083516806105976</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.93095873215126312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>0.85901639344262293</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.92416225749559078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>0.85455987311657411</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.921577011887454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>0.83268437929454875</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.9087046178841468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>0.87510063254744108</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.93339057899901867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>0.80835521059239812</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.89402259673041717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>0.87227450080330504</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0.93178057002758197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>0.89027843322321853</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0.94195481213331667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>0.87961080453093232</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.93594993432743567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>0.852365618033193</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0.92029954533297675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>0.88567017131093306</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0.93936912699341046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>0.8754959994796071</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0.93361542730299674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>0.86476841305998486</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0.92748076061728901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>0.9151553989106056</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.95569832028374491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>0.91096150199127635</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0.95340644072842751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>0.85328217532738349</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0.92083352086052483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>0.87461450348048286</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0.93311398354876618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>0.84863306839025243</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0.91811953697141502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>0.89794667483910506</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0.94622961408041328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>0.88429134393259956</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0.9385930119352397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>0.85884691848906558</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0.92406417112299466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>0.87550774785617569</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0.93362210724742312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>0.88301101378891689</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0.93787132132823658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>0.87913958526771896</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0.93568310961047507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>0.86183756663530886</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0.92579243439889514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>0.86343612334801767</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0.92671394799054374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>0.8464077669902913</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0.91681564833315798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>0.8948478867487919</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0.94450630365288601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>0.82044838304344947</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0.90136956442765281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>0.88423359546216318</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0.93856048166392991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>0.89856174802931821</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0.94657100193029098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>0.91651904340124002</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0.95644136337377239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>0.87088369400014476</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0.93098646034816246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>0.90313182811361981</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0.94910065059318793</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>0.87718459858001097</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0.9345746808742772</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>0.87557502738225634</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0.93366035972903527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>0.88960782766511481</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>0.94157932100054276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>0.84015578389128276</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0.913135497816004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>0.84214894740813395</v>
+      </c>
+      <c r="C58">
+        <v>0.91431146063733915</v>
       </c>
     </row>
   </sheetData>

--- a/SimilarityMetrics/SegOdont.xlsx
+++ b/SimilarityMetrics/SegOdont.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>IoU</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>WENDY3_Izq</t>
-  </si>
-  <si>
-    <t>Dice</t>
   </si>
   <si>
     <t>Dice Score</t>
@@ -216,8 +213,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -236,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +247,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,17 +268,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,12 +606,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -588,14 +626,14 @@
       <c r="C2" s="3">
         <v>0.95113678034470117</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <f>AVERAGE(B:B)</f>
         <v>0.87091165013359306</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <f>AVERAGE(C:C)</f>
         <v>0.93071048504786602</v>
       </c>
@@ -610,14 +648,14 @@
       <c r="C3" s="3">
         <v>0.93247782600490658</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <f>_xlfn.STDEV.S(B:B)</f>
         <v>3.0706784514270162E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <f>_xlfn.STDEV.S(C:C)</f>
         <v>1.812433705889736E-2</v>
       </c>
